--- a/Selenium/Bugs/data/genre/태교.xlsx
+++ b/Selenium/Bugs/data/genre/태교.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="770">
   <si>
     <t>Title</t>
   </si>
@@ -346,352 +346,358 @@
     <t>Strauss: Radetzky March (라데츠키 행진곡)</t>
   </si>
   <si>
+    <t xml:space="preserve">Beauty and the Beast </t>
+  </si>
+  <si>
+    <t>When You Wish Upon A Star</t>
+  </si>
+  <si>
+    <t>So This Is Love</t>
+  </si>
+  <si>
+    <t>Someday My Prince Will Come (Snow White) (Piano Lullaby Version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wooden Head </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I See the Light (Adagio) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can You Feel the Love Tonight </t>
+  </si>
+  <si>
+    <t>My Own Home (Jungle Book Theme)</t>
+  </si>
+  <si>
+    <t>Ratatouille: Main Theme (From "Ratatouille")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colors of the Wind </t>
+  </si>
+  <si>
+    <t>A Whole New World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do You Want to Build a Snowman? (Plié 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Wonder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflection (Center Adagio 1) </t>
+  </si>
+  <si>
+    <t>Once Upon A Dream (Sleeping Beauty) (Piano Lullaby Version)</t>
+  </si>
+  <si>
+    <t>Let It Go</t>
+  </si>
+  <si>
+    <t>Candle On The Water</t>
+  </si>
+  <si>
+    <t>Bella Notte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go the Distance (Center Adagio 2) </t>
+  </si>
+  <si>
+    <t>How Far I'll Go (Moana) (Piano Lullaby Version)</t>
+  </si>
+  <si>
+    <t>When She Loved Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Star to the Right </t>
+  </si>
+  <si>
+    <t>We're In The Club Now (from "Up")</t>
+  </si>
+  <si>
+    <t>Beyond the Sea (From "Finding Nemo") (Piano Lullaby Version)</t>
+  </si>
+  <si>
+    <t>A Dream Is a Wish Your Heart Makes</t>
+  </si>
+  <si>
+    <t>Lake Louise (Piano &amp; Cello)</t>
+  </si>
+  <si>
+    <t>Memories Of The Day (on Rainy Day)</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Silent Prayer</t>
+  </si>
+  <si>
+    <t>Once Upon A Time</t>
+  </si>
+  <si>
+    <t>프라하의 밤 (Night of Praha)</t>
+  </si>
+  <si>
+    <t>위로가 필요한 밤</t>
+  </si>
+  <si>
+    <t>Falling in Cherry Blossom</t>
+  </si>
+  <si>
+    <t>Madam Windham Hill</t>
+  </si>
+  <si>
+    <t>Day After (Divorce)</t>
+  </si>
+  <si>
+    <t>What A Wonderful World</t>
+  </si>
+  <si>
+    <t>공원에서</t>
+  </si>
+  <si>
+    <t>언젠가 우리가 다시 만난다면</t>
+  </si>
+  <si>
+    <t>Kiss The Rain</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Angel Eyes</t>
+  </si>
+  <si>
+    <t>Clementi : Piano Sonatine In C Major Op.36-1 - I. Allegro (클레멘티 : 피아노 소나티네 다장조 작품번호 36-1 - 1악장)</t>
+  </si>
+  <si>
+    <t>Terrace Wind</t>
+  </si>
+  <si>
+    <t>환절기</t>
+  </si>
+  <si>
+    <t>Your Song (Album Version)</t>
+  </si>
+  <si>
+    <t>멘델스존: 봄의노래 (Mendelssohn: Spring Song)</t>
+  </si>
+  <si>
+    <t>Vivaldi: The Four Seasons Op.8 Nos.1-4, Concerto No.1 In E (La Primavera / Spring) Rv269 (Op.8 No.1) - I. Allegro</t>
+  </si>
+  <si>
+    <t>4월의 D플랫</t>
+  </si>
+  <si>
+    <t>베토벤: 바이올린 소나타(Violin Sonata) 5번 F장조 '봄(Spring)' Op.24 - 1. Allegro</t>
+  </si>
+  <si>
+    <t>Bizet: L'Arlesienne Suite No. 2 - III. Minuet</t>
+  </si>
+  <si>
+    <t>L-O-V-E</t>
+  </si>
+  <si>
+    <t>Johann Strauss II : An Der Schonen, Blauen Donau (Waltz On The Beautiful Blue Danube), Op. 314</t>
+  </si>
+  <si>
+    <t>Glinka: No.15, Dances</t>
+  </si>
+  <si>
+    <t>Hang On Little Tomato</t>
+  </si>
+  <si>
+    <t>Paradis: Sicilienne In E-Flat Major (Arr. Dushkin For Cello And Piano)</t>
+  </si>
+  <si>
+    <t>Elgar: Salut D'amour (엘가: 사랑의 인사)</t>
+  </si>
+  <si>
+    <t>Spring Time</t>
+  </si>
+  <si>
+    <t>봄.</t>
+  </si>
+  <si>
+    <t>Brahms: 5 Lieder Op.49 - IV. Wiegenlied (Orch. Herzog)</t>
+  </si>
+  <si>
+    <t>수면을 유도해 주는 음악</t>
+  </si>
+  <si>
+    <t>예쁘고 좋은 꿈만 꾸렴</t>
+  </si>
+  <si>
+    <t>달빛 정원</t>
+  </si>
+  <si>
+    <t>나를 보고 있는 너에게</t>
+  </si>
+  <si>
+    <t>아기 꿀잠 자장가</t>
+  </si>
+  <si>
+    <t>축복의 시작</t>
+  </si>
+  <si>
+    <t>별이 머문 자리</t>
+  </si>
+  <si>
+    <t>Beloved</t>
+  </si>
+  <si>
+    <t>꿈 속에서 떠난 산책</t>
+  </si>
+  <si>
+    <t>자장자장 예쁜꿈</t>
+  </si>
+  <si>
+    <t>사랑 후에 남겨진 것들</t>
+  </si>
+  <si>
+    <t>Blue Moon</t>
+  </si>
+  <si>
+    <t>엄마와 아기의 휴식시간</t>
+  </si>
+  <si>
+    <t>별 보러 가는 길</t>
+  </si>
+  <si>
+    <t>겨울밤</t>
+  </si>
+  <si>
+    <t>Brahms: 5 Lieder, Op. 49 (Arr. A. Spalding For Violin And Piano) - 5 Lieder, Op. 49: No. 4. Wiegenlied (Arr. A. Spalding)</t>
+  </si>
+  <si>
+    <t>Rubinstein: 2 Melodies, Op.3 - Melody No.1 In F Major (루빈슈타인: 2개의 멜로디, Op.3 - 멜로디 1번 F장조)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachelbel : Canon And Gigue In D Major (Arr. For Guitar Quartet) - Canon In D Major (Arr. For Guitar Quartet) </t>
+  </si>
+  <si>
+    <t>Liszt: Liebestraume, S541/R211: No. 3. Nocturne In A-Flat Major</t>
+  </si>
+  <si>
+    <t>Mozart: Piano Sonata No. 16 In C Major, K. 545, "Sonata Facile" - Ii. Andante</t>
+  </si>
+  <si>
+    <t>슈만: 어린이의 정경 Op.15 No.7 - 꿈 (트로이메라이) (Schumann: Scenes Of Childhood Op.15 No.7 - Dreaming (Traumerei))</t>
+  </si>
+  <si>
+    <t>Friedman: Mozart - Eine Kleine Nachtmusik, K. 525 (Arr. For Piano Solo) - Mozart - Eine Kleine Nachtmusik, K. 525: Iii. Romance (Arr. For Piano Solo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debussy : Rêverie - Reverie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Chopin : Berceuse In D-Flat Major, Op. 57" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyric Pieces, Book 2, Op. 38: No. 2. Popular Melody </t>
+  </si>
+  <si>
+    <t>Rebikov: 3 Morceaux, Op. 7: No. 1. Berceuse (Lullaby)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bach : Overture (Suite) No. 3 In D Major, Bwv 1068 - II. Air" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Beethoven : Bagatelle In A Minor, Woo 59, ""Fur Elise"" - Bagatelle In A Minor, Woo 59, ""Fur Elise""" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iradier : La Paloma (Arr. F. Tarrega For Guitar) - La Paloma (Arr. F. Tarrega) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sibelius : 6 Pieces, Op. 79 - Vi. Berceuse" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tchaikovsky : The Nutcracker, Op. 71 (Arr. For Piano) - I. Ouverture Miniature" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcello: Oboe Concerto In D Minor - Ii. Adagio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolly, Op. 56 (version for piano 4 hands): I. Berceuse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bach : Clavierbuchlein For Anna Magdalena Bach, Book 2, Bwv Anh. 113-132 - Menuet In G Major, Bwv Anh. 116" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satie : 3 Gymnopedies (Arr. For Harp) - Gymnopedie No. 1 (Arr. For Harp) </t>
+  </si>
+  <si>
+    <t>Tchaikovsky: Les Saisons (The Seasons), Op. 37B: VI. June: Barcarolle</t>
+  </si>
+  <si>
+    <t>Gottschalk: Berceuse (Cradle Song), Op.47 (고트차크: 자장가)</t>
+  </si>
+  <si>
+    <t>Debussy: Suite Bergamasque - III. Clair De Lune (드뷔시: 베르가마스크 모음곡 - III. 달빛)</t>
+  </si>
+  <si>
+    <t>Saint-Saens: Carnival Of The Animals - XIII. The Swan (생상: 동물의 사육제 모음곡 - 13번. 백조)</t>
+  </si>
+  <si>
+    <t>베토벤: 피아노 소나타 8번 다단조, 작품번호 13 '비창': 2. Adagio cantabile</t>
+  </si>
+  <si>
+    <t>Chopin: Mazurka Op.63, No.3 In C-Sharp Minor</t>
+  </si>
+  <si>
+    <t>Chopin: Nocturne In F Minor Op.55-1</t>
+  </si>
+  <si>
+    <t>Chopin: Waltzes No.9 In A Flat Major Op.69-1 (1997 Digital Remaster)</t>
+  </si>
+  <si>
+    <t>Chopin: Nocturne No.9 in B, Op.32 No.1</t>
+  </si>
+  <si>
+    <t>Waltz in C-Sharp Minor, Op. 64, No. 2</t>
+  </si>
+  <si>
+    <t>Faure: Nocturne No. 4 In E-Flat Major, Op. 36</t>
+  </si>
+  <si>
+    <t>Piano Sonata No. 4 in E-Flat Major, K. 282: I. Adagio</t>
+  </si>
+  <si>
+    <t>Mozart: Piano Sonata No. 10 in C Major, K. 330 - 1. Allegro moderato</t>
+  </si>
+  <si>
+    <t>라벨: 쿠프랭의 무덤 - V. 미뉴엣 (Ravel: Le Tombeau De Couperin - V. Menuet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ravel : Valses Nobles Et Sentimentales (Version For Piano) - II. Assez Lent, Avec Une Expression Intense" </t>
+  </si>
+  <si>
+    <t>Bach: Invention No.1 In C Major BWV 772</t>
+  </si>
+  <si>
+    <t>Chopin: 24 Préludes, Op.28 - 8. in F sharp minor</t>
+  </si>
+  <si>
+    <t>Debussy: Images II, L. 111 - 1. Cloches à travers les feuilles</t>
+  </si>
+  <si>
+    <t>Suite bergamasque, L. 75: 3. 달빛(Clair de lune)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle of Life (Rond De Jambe En L'air) </t>
+  </si>
+  <si>
+    <t>Can You Feel the Love Tonight</t>
+  </si>
+  <si>
+    <t>I Just Can't Wait to Be King</t>
+  </si>
+  <si>
     <t>Beauty and the Beast</t>
   </si>
   <si>
-    <t>When You Wish Upon A Star</t>
-  </si>
-  <si>
-    <t>So This Is Love</t>
-  </si>
-  <si>
-    <t>Someday My Prince Will Come (Snow White) (Piano Lullaby Version)</t>
-  </si>
-  <si>
-    <t>Little Wooden Head</t>
-  </si>
-  <si>
-    <t>I See the Light (Adagio)</t>
-  </si>
-  <si>
-    <t>Can You Feel the Love Tonight</t>
-  </si>
-  <si>
-    <t>My Own Home (Jungle Book Theme)</t>
-  </si>
-  <si>
-    <t>Ratatouille: Main Theme (From "Ratatouille")</t>
-  </si>
-  <si>
-    <t>Colors of the Wind</t>
-  </si>
-  <si>
-    <t>A Whole New World</t>
-  </si>
-  <si>
-    <t>Do You Want to Build a Snowman? (Plié 2)</t>
-  </si>
-  <si>
-    <t>I Wonder</t>
-  </si>
-  <si>
-    <t>Reflection (Center Adagio 1)</t>
-  </si>
-  <si>
-    <t>Once Upon A Dream (Sleeping Beauty) (Piano Lullaby Version)</t>
-  </si>
-  <si>
-    <t>Let It Go</t>
-  </si>
-  <si>
-    <t>Candle On The Water</t>
-  </si>
-  <si>
-    <t>Bella Notte</t>
-  </si>
-  <si>
-    <t>Go the Distance (Center Adagio 2)</t>
-  </si>
-  <si>
-    <t>How Far I'll Go (Moana) (Piano Lullaby Version)</t>
-  </si>
-  <si>
-    <t>When She Loved Me</t>
-  </si>
-  <si>
-    <t>Second Star to the Right</t>
-  </si>
-  <si>
-    <t>We're In The Club Now (from "Up")</t>
-  </si>
-  <si>
-    <t>Beyond the Sea (From "Finding Nemo") (Piano Lullaby Version)</t>
-  </si>
-  <si>
-    <t>A Dream Is a Wish Your Heart Makes</t>
-  </si>
-  <si>
-    <t>Lake Louise (Piano &amp; Cello)</t>
-  </si>
-  <si>
-    <t>Memories Of The Day (on Rainy Day)</t>
-  </si>
-  <si>
-    <t>Sometimes</t>
-  </si>
-  <si>
-    <t>Silent Prayer</t>
-  </si>
-  <si>
-    <t>Once Upon A Time</t>
-  </si>
-  <si>
-    <t>프라하의 밤 (Night of Praha)</t>
-  </si>
-  <si>
-    <t>위로가 필요한 밤</t>
-  </si>
-  <si>
-    <t>Falling in Cherry Blossom</t>
-  </si>
-  <si>
-    <t>Madam Windham Hill</t>
-  </si>
-  <si>
-    <t>Day After (Divorce)</t>
-  </si>
-  <si>
-    <t>What A Wonderful World</t>
-  </si>
-  <si>
-    <t>공원에서</t>
-  </si>
-  <si>
-    <t>언젠가 우리가 다시 만난다면</t>
-  </si>
-  <si>
-    <t>Kiss The Rain</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Angel Eyes</t>
-  </si>
-  <si>
-    <t>Clementi : Piano Sonatine In C Major Op.36-1 - I. Allegro (클레멘티 : 피아노 소나티네 다장조 작품번호 36-1 - 1악장)</t>
-  </si>
-  <si>
-    <t>Terrace Wind</t>
-  </si>
-  <si>
-    <t>환절기</t>
-  </si>
-  <si>
-    <t>Your Song (Album Version)</t>
-  </si>
-  <si>
-    <t>멘델스존: 봄의노래 (Mendelssohn: Spring Song)</t>
-  </si>
-  <si>
-    <t>Vivaldi: The Four Seasons Op.8 Nos.1-4, Concerto No.1 In E (La Primavera / Spring) Rv269 (Op.8 No.1) - I. Allegro</t>
-  </si>
-  <si>
-    <t>4월의 D플랫</t>
-  </si>
-  <si>
-    <t>베토벤: 바이올린 소나타(Violin Sonata) 5번 F장조 '봄(Spring)' Op.24 - 1. Allegro</t>
-  </si>
-  <si>
-    <t>Bizet: L'Arlesienne Suite No. 2 - III. Minuet</t>
-  </si>
-  <si>
-    <t>L-O-V-E</t>
-  </si>
-  <si>
-    <t>Johann Strauss II : An Der Schonen, Blauen Donau (Waltz On The Beautiful Blue Danube), Op. 314</t>
-  </si>
-  <si>
-    <t>Glinka: No.15, Dances</t>
-  </si>
-  <si>
-    <t>Hang On Little Tomato</t>
-  </si>
-  <si>
-    <t>Paradis: Sicilienne In E-Flat Major (Arr. Dushkin For Cello And Piano)</t>
-  </si>
-  <si>
-    <t>Elgar: Salut D'amour (엘가: 사랑의 인사)</t>
-  </si>
-  <si>
-    <t>Spring Time</t>
-  </si>
-  <si>
-    <t>봄.</t>
-  </si>
-  <si>
-    <t>Brahms: 5 Lieder Op.49 - IV. Wiegenlied (Orch. Herzog)</t>
-  </si>
-  <si>
-    <t>수면을 유도해 주는 음악</t>
-  </si>
-  <si>
-    <t>예쁘고 좋은 꿈만 꾸렴</t>
-  </si>
-  <si>
-    <t>달빛 정원</t>
-  </si>
-  <si>
-    <t>나를 보고 있는 너에게</t>
-  </si>
-  <si>
-    <t>아기 꿀잠 자장가</t>
-  </si>
-  <si>
-    <t>축복의 시작</t>
-  </si>
-  <si>
-    <t>별이 머문 자리</t>
-  </si>
-  <si>
-    <t>Beloved</t>
-  </si>
-  <si>
-    <t>꿈 속에서 떠난 산책</t>
-  </si>
-  <si>
-    <t>자장자장 예쁜꿈</t>
-  </si>
-  <si>
-    <t>사랑 후에 남겨진 것들</t>
-  </si>
-  <si>
-    <t>Blue Moon</t>
-  </si>
-  <si>
-    <t>엄마와 아기의 휴식시간</t>
-  </si>
-  <si>
-    <t>별 보러 가는 길</t>
-  </si>
-  <si>
-    <t>겨울밤</t>
-  </si>
-  <si>
-    <t>Brahms: 5 Lieder, Op. 49 (Arr. A. Spalding For Violin And Piano) - 5 Lieder, Op. 49: No. 4. Wiegenlied (Arr. A. Spalding)</t>
-  </si>
-  <si>
-    <t>Rubinstein: 2 Melodies, Op.3 - Melody No.1 In F Major (루빈슈타인: 2개의 멜로디, Op.3 - 멜로디 1번 F장조)</t>
-  </si>
-  <si>
-    <t>Pachelbel : Canon And Gigue In D Major (Arr. For Guitar Quartet) - Canon In D Major (Arr. For Guitar Quartet)</t>
-  </si>
-  <si>
-    <t>Liszt: Liebestraume, S541/R211: No. 3. Nocturne In A-Flat Major</t>
-  </si>
-  <si>
-    <t>Mozart: Piano Sonata No. 16 In C Major, K. 545, "Sonata Facile" - Ii. Andante</t>
-  </si>
-  <si>
-    <t>슈만: 어린이의 정경 Op.15 No.7 - 꿈 (트로이메라이) (Schumann: Scenes Of Childhood Op.15 No.7 - Dreaming (Traumerei))</t>
-  </si>
-  <si>
-    <t>Friedman: Mozart - Eine Kleine Nachtmusik, K. 525 (Arr. For Piano Solo) - Mozart - Eine Kleine Nachtmusik, K. 525: Iii. Romance (Arr. For Piano Solo)</t>
-  </si>
-  <si>
-    <t>Debussy : Rêverie - Reverie</t>
-  </si>
-  <si>
-    <t>"Chopin : Berceuse In D-Flat Major, Op. 57"</t>
-  </si>
-  <si>
-    <t>Lyric Pieces, Book 2, Op. 38: No. 2. Popular Melody</t>
-  </si>
-  <si>
-    <t>Rebikov: 3 Morceaux, Op. 7: No. 1. Berceuse (Lullaby)</t>
-  </si>
-  <si>
-    <t>"Bach : Overture (Suite) No. 3 In D Major, Bwv 1068 - II. Air"</t>
-  </si>
-  <si>
-    <t>"Beethoven : Bagatelle In A Minor, Woo 59, ""Fur Elise"" - Bagatelle In A Minor, Woo 59, ""Fur Elise"""</t>
-  </si>
-  <si>
-    <t>Iradier : La Paloma (Arr. F. Tarrega For Guitar) - La Paloma (Arr. F. Tarrega)</t>
-  </si>
-  <si>
-    <t>"Sibelius : 6 Pieces, Op. 79 - Vi. Berceuse"</t>
-  </si>
-  <si>
-    <t>"Tchaikovsky : The Nutcracker, Op. 71 (Arr. For Piano) - I. Ouverture Miniature"</t>
-  </si>
-  <si>
-    <t>Marcello: Oboe Concerto In D Minor - Ii. Adagio</t>
-  </si>
-  <si>
-    <t>Dolly, Op. 56 (version for piano 4 hands): I. Berceuse</t>
-  </si>
-  <si>
-    <t>"Bach : Clavierbuchlein For Anna Magdalena Bach, Book 2, Bwv Anh. 113-132 - Menuet In G Major, Bwv Anh. 116"</t>
-  </si>
-  <si>
-    <t>Satie : 3 Gymnopedies (Arr. For Harp) - Gymnopedie No. 1 (Arr. For Harp)</t>
-  </si>
-  <si>
-    <t>Tchaikovsky: Les Saisons (The Seasons), Op. 37B: VI. June: Barcarolle</t>
-  </si>
-  <si>
-    <t>Gottschalk: Berceuse (Cradle Song), Op.47 (고트차크: 자장가)</t>
-  </si>
-  <si>
-    <t>Debussy: Suite Bergamasque - III. Clair De Lune (드뷔시: 베르가마스크 모음곡 - III. 달빛)</t>
-  </si>
-  <si>
-    <t>Saint-Saens: Carnival Of The Animals - XIII. The Swan (생상: 동물의 사육제 모음곡 - 13번. 백조)</t>
-  </si>
-  <si>
-    <t>베토벤: 피아노 소나타 8번 다단조, 작품번호 13 '비창': 2. Adagio cantabile</t>
-  </si>
-  <si>
-    <t>Chopin: Mazurka Op.63, No.3 In C-Sharp Minor</t>
-  </si>
-  <si>
-    <t>Chopin: Nocturne In F Minor Op.55-1</t>
-  </si>
-  <si>
-    <t>Chopin: Waltzes No.9 In A Flat Major Op.69-1 (1997 Digital Remaster)</t>
-  </si>
-  <si>
-    <t>Chopin: Nocturne No.9 in B, Op.32 No.1</t>
-  </si>
-  <si>
-    <t>Waltz in C-Sharp Minor, Op. 64, No. 2</t>
-  </si>
-  <si>
-    <t>Faure: Nocturne No. 4 In E-Flat Major, Op. 36</t>
-  </si>
-  <si>
-    <t>Piano Sonata No. 4 in E-Flat Major, K. 282: I. Adagio</t>
-  </si>
-  <si>
-    <t>Mozart: Piano Sonata No. 10 in C Major, K. 330 - 1. Allegro moderato</t>
-  </si>
-  <si>
-    <t>라벨: 쿠프랭의 무덤 - V. 미뉴엣 (Ravel: Le Tombeau De Couperin - V. Menuet)</t>
-  </si>
-  <si>
-    <t>"Ravel : Valses Nobles Et Sentimentales (Version For Piano) - II. Assez Lent, Avec Une Expression Intense"</t>
-  </si>
-  <si>
-    <t>Bach: Invention No.1 In C Major BWV 772</t>
-  </si>
-  <si>
-    <t>Chopin: 24 Préludes, Op.28 - 8. in F sharp minor</t>
-  </si>
-  <si>
-    <t>Debussy: Images II, L. 111 - 1. Cloches à travers les feuilles</t>
-  </si>
-  <si>
-    <t>Suite bergamasque, L. 75: 3. 달빛(Clair de lune)</t>
-  </si>
-  <si>
-    <t>Circle of Life (Rond De Jambe En L'air)</t>
-  </si>
-  <si>
-    <t>I Just Can't Wait to Be King</t>
-  </si>
-  <si>
-    <t>A Dream Is a Wish Your Heart Makes (Plié 1)</t>
+    <t xml:space="preserve">A Dream Is a Wish Your Heart Makes (Plié 1) </t>
   </si>
   <si>
     <t>I See the Light</t>
@@ -703,37 +709,37 @@
     <t>Bibbidi-bobbidi-boo</t>
   </si>
   <si>
-    <t>Following the Leader (Grande Battement)</t>
+    <t xml:space="preserve">Following the Leader (Grande Battement) </t>
   </si>
   <si>
     <t>Under the Sea</t>
   </si>
   <si>
-    <t>Someday My Prince Will Come</t>
-  </si>
-  <si>
-    <t>Be Our Guest (Frappé)</t>
-  </si>
-  <si>
-    <t>The Bare Necessities (From "The Jungle Book")</t>
+    <t xml:space="preserve">Someday My Prince Will Come </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be Our Guest (Frappé) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bare Necessities (From "The Jungle Book") </t>
   </si>
   <si>
     <t>Hakuna Matata</t>
   </si>
   <si>
-    <t>Alice in Wonderland</t>
+    <t xml:space="preserve">Alice in Wonderland </t>
   </si>
   <si>
     <t>You've Got a Friend in Me</t>
   </si>
   <si>
-    <t>Cruella De Vil (Grand Battement)</t>
+    <t xml:space="preserve">Cruella De Vil (Grand Battement) </t>
   </si>
   <si>
     <t>Go the Distance</t>
   </si>
   <si>
-    <t>Reindeer(s) Are Better Than People [Pirouettes 2]</t>
+    <t xml:space="preserve">Reindeer(s) Are Better Than People [Pirouettes 2] </t>
   </si>
   <si>
     <t>La La Lu</t>
@@ -742,7 +748,7 @@
     <t>Winnie the Pooh</t>
   </si>
   <si>
-    <t>Down in New Orleans (Reverance)</t>
+    <t xml:space="preserve">Down in New Orleans (Reverance) </t>
   </si>
   <si>
     <t>Try Everything</t>
@@ -754,10 +760,10 @@
     <t>Chim Chim Cher-ee</t>
   </si>
   <si>
-    <t>The Nutcracker (From "Fantasia" 1940)</t>
-  </si>
-  <si>
-    <t>Do You Want to Build a Snowman? (From "Frozen") [Piano Version]</t>
+    <t xml:space="preserve">The Nutcracker (From "Fantasia" 1940) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do You Want to Build a Snowman? (From "Frozen") [Piano Version] </t>
   </si>
   <si>
     <t>아기 잠꼬대</t>
@@ -796,28 +802,28 @@
     <t>봄을 기다리며</t>
   </si>
   <si>
-    <t>Silent Night Lullaby</t>
+    <t xml:space="preserve">Silent Night Lullaby </t>
   </si>
   <si>
     <t>L'albero di Natale, una ninna nanna - O Tannenbaum, a Christmas lullaby</t>
   </si>
   <si>
-    <t>Oh Holy Night</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71, Act II: Dance of the Sugar Plum Fairy (Jeté)</t>
+    <t xml:space="preserve">Oh Holy Night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71, Act II: Dance of the Sugar Plum Fairy (Jeté) </t>
   </si>
   <si>
     <t>Jingle Bell Rock</t>
   </si>
   <si>
-    <t>Santa Claus is Coming to Town</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71, Act II: Waltz of Flowers (Grand Allegro 2)</t>
-  </si>
-  <si>
-    <t>Let It Snow! Let It Snow! Let It Snow!</t>
+    <t xml:space="preserve">Santa Claus is Coming to Town </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71, Act II: Waltz of Flowers (Grand Allegro 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let It Snow! Let It Snow! Let It Snow! </t>
   </si>
   <si>
     <t>O Come All Ye Faithful</t>
@@ -826,13 +832,13 @@
     <t>Christmas Pastorale</t>
   </si>
   <si>
-    <t>Old McDonald Had a Farm in the Little Town of Bethlehem</t>
-  </si>
-  <si>
-    <t>We Wish You a Merry Christmas / Angels We Have Heard on High (Pirouettes Travelling)</t>
-  </si>
-  <si>
-    <t>Rock A Bye Baby Christmas Medley</t>
+    <t xml:space="preserve">Old McDonald Had a Farm in the Little Town of Bethlehem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We Wish You a Merry Christmas / Angels We Have Heard on High (Pirouettes Travelling) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock A Bye Baby Christmas Medley </t>
   </si>
   <si>
     <t>엄마 크리스마스에 눈이 올까요</t>
@@ -2713,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2727,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2741,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2755,10 +2761,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2769,10 +2775,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2783,10 +2789,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2797,10 +2803,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2811,10 +2817,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2825,10 +2831,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2839,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2853,10 +2859,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2867,10 +2873,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2881,10 +2887,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2895,10 +2901,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2909,10 +2915,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2923,10 +2929,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2937,10 +2943,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2951,10 +2957,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2965,10 +2971,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2979,10 +2985,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2993,10 +2999,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3007,10 +3013,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3021,10 +3027,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3035,10 +3041,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3049,10 +3055,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3063,10 +3069,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3077,10 +3083,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3091,10 +3097,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3105,10 +3111,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3119,10 +3125,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3133,10 +3139,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3147,10 +3153,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3161,10 +3167,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3175,10 +3181,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3189,10 +3195,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3203,10 +3209,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3217,10 +3223,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3231,10 +3237,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3245,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3259,10 +3265,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3273,10 +3279,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3287,10 +3293,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3301,10 +3307,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3315,10 +3321,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3329,10 +3335,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3343,10 +3349,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3357,10 +3363,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3371,10 +3377,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3385,10 +3391,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3399,10 +3405,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3413,10 +3419,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3427,10 +3433,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3441,10 +3447,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3455,10 +3461,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3469,10 +3475,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3483,10 +3489,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3497,10 +3503,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3511,10 +3517,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3525,10 +3531,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3539,10 +3545,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3553,10 +3559,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3567,10 +3573,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3581,10 +3587,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3595,10 +3601,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3609,10 +3615,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3623,10 +3629,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3637,10 +3643,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3651,10 +3657,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3665,10 +3671,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3679,10 +3685,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3693,10 +3699,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3707,10 +3713,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3721,10 +3727,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3735,10 +3741,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3749,10 +3755,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3763,10 +3769,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3777,10 +3783,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3791,10 +3797,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3805,10 +3811,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3819,10 +3825,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3833,10 +3839,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3847,10 +3853,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3861,10 +3867,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3875,10 +3881,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3889,10 +3895,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3903,10 +3909,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3917,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3931,10 +3937,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3945,10 +3951,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3959,10 +3965,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3973,10 +3979,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3987,10 +3993,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4001,10 +4007,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4015,10 +4021,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4029,10 +4035,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4043,10 +4049,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4057,10 +4063,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4071,10 +4077,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4085,10 +4091,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4099,10 +4105,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4113,10 +4119,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4127,10 +4133,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4141,10 +4147,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4155,10 +4161,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4169,10 +4175,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4183,10 +4189,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4197,10 +4203,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4211,10 +4217,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4225,10 +4231,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4239,10 +4245,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4253,10 +4259,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4267,10 +4273,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4281,10 +4287,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4295,10 +4301,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4309,10 +4315,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4323,10 +4329,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4337,10 +4343,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4351,10 +4357,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4365,10 +4371,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4379,10 +4385,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4393,10 +4399,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4407,10 +4413,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4421,10 +4427,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4435,10 +4441,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4449,10 +4455,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4463,10 +4469,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4477,10 +4483,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4491,10 +4497,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4505,10 +4511,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4519,10 +4525,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4533,10 +4539,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4547,10 +4553,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4561,10 +4567,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4575,10 +4581,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4589,10 +4595,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4603,10 +4609,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4617,10 +4623,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4631,10 +4637,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4645,10 +4651,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4659,10 +4665,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4673,10 +4679,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4687,10 +4693,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4701,10 +4707,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4715,10 +4721,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4729,10 +4735,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4743,10 +4749,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4757,10 +4763,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4771,10 +4777,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4785,10 +4791,10 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4799,10 +4805,10 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4813,10 +4819,10 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4827,10 +4833,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4841,10 +4847,10 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4855,10 +4861,10 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4869,10 +4875,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4883,10 +4889,10 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4897,10 +4903,10 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4911,10 +4917,10 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4925,10 +4931,10 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4939,10 +4945,10 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4953,10 +4959,10 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4967,10 +4973,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4981,10 +4987,10 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4995,10 +5001,10 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5009,10 +5015,10 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5023,10 +5029,10 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5037,10 +5043,10 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5051,10 +5057,10 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5065,10 +5071,10 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5079,10 +5085,10 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5093,10 +5099,10 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5107,10 +5113,10 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5121,10 +5127,10 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5135,10 +5141,10 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5149,10 +5155,10 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5163,10 +5169,10 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5177,10 +5183,10 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5191,10 +5197,10 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5205,10 +5211,10 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5219,10 +5225,10 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5233,10 +5239,10 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5247,10 +5253,10 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5261,10 +5267,10 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5275,10 +5281,10 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5289,10 +5295,10 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5303,10 +5309,10 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5317,10 +5323,10 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5331,10 +5337,10 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5345,10 +5351,10 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5359,10 +5365,10 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5373,10 +5379,10 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5387,10 +5393,10 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5401,10 +5407,10 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5415,10 +5421,10 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5429,10 +5435,10 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5443,10 +5449,10 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5457,10 +5463,10 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5471,10 +5477,10 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5485,10 +5491,10 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5499,10 +5505,10 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5513,10 +5519,10 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5527,10 +5533,10 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5541,10 +5547,10 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5555,10 +5561,10 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5569,10 +5575,10 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5583,10 +5589,10 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5597,10 +5603,10 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5611,10 +5617,10 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5625,10 +5631,10 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5639,10 +5645,10 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5653,10 +5659,10 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5667,10 +5673,10 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5681,10 +5687,10 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5695,10 +5701,10 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5709,10 +5715,10 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5723,10 +5729,10 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5737,10 +5743,10 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5751,10 +5757,10 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5765,10 +5771,10 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5779,10 +5785,10 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5793,10 +5799,10 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5804,13 +5810,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5818,13 +5824,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5832,13 +5838,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5846,13 +5852,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5860,13 +5866,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5874,13 +5880,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5891,10 +5897,10 @@
         <v>111</v>
       </c>
       <c r="C229" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5902,13 +5908,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5916,13 +5922,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5930,13 +5936,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5944,13 +5950,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5958,13 +5964,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5972,13 +5978,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5986,13 +5992,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6000,13 +6006,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6014,13 +6020,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6028,13 +6034,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6042,13 +6048,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C240" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6056,13 +6062,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6070,13 +6076,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6084,13 +6090,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6098,13 +6104,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C244" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6112,13 +6118,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6126,13 +6132,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6140,13 +6146,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6154,13 +6160,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6168,13 +6174,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6182,13 +6188,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6196,13 +6202,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6210,13 +6216,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6224,13 +6230,13 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C253" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6238,13 +6244,13 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C254" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6252,13 +6258,13 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6266,13 +6272,13 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6280,13 +6286,13 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6294,13 +6300,13 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6308,13 +6314,13 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C259" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6322,13 +6328,13 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6336,13 +6342,13 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6350,13 +6356,13 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C262" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6364,13 +6370,13 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6378,13 +6384,13 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C264" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6392,13 +6398,13 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6406,13 +6412,13 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C266" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6420,13 +6426,13 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C267" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6434,13 +6440,13 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6448,13 +6454,13 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6462,13 +6468,13 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6476,13 +6482,13 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6490,13 +6496,13 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6504,13 +6510,13 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C273" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6518,13 +6524,13 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C274" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6532,13 +6538,13 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6546,13 +6552,13 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C276" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6560,13 +6566,13 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6574,13 +6580,13 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6588,13 +6594,13 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6602,13 +6608,13 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6616,13 +6622,13 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C281" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6630,13 +6636,13 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6644,13 +6650,13 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6658,13 +6664,13 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6672,13 +6678,13 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6686,13 +6692,13 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6700,13 +6706,13 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6714,13 +6720,13 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6728,13 +6734,13 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6742,13 +6748,13 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C290" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6756,13 +6762,13 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6770,13 +6776,13 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6784,13 +6790,13 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6798,13 +6804,13 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6812,13 +6818,13 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6826,13 +6832,13 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6840,13 +6846,13 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6854,13 +6860,13 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6868,13 +6874,13 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
